--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ngf-Ntrk1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ngf-Ntrk1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,25 +525,25 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.2000683333333333</v>
+        <v>0.322531</v>
       </c>
       <c r="H2">
-        <v>0.600205</v>
+        <v>0.967593</v>
       </c>
       <c r="I2">
-        <v>0.01182207550347303</v>
+        <v>0.01892149513432853</v>
       </c>
       <c r="J2">
-        <v>0.01182207550347303</v>
+        <v>0.01892149513432853</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.0009183333333333334</v>
+        <v>0.08949833333333333</v>
       </c>
       <c r="N2">
-        <v>0.002755</v>
+        <v>0.268495</v>
       </c>
       <c r="O2">
-        <v>0.008176384346453142</v>
+        <v>0.8034178059852001</v>
       </c>
       <c r="P2">
-        <v>0.008176384346453142</v>
+        <v>0.8034178059852</v>
       </c>
       <c r="Q2">
-        <v>0.0001837294194444444</v>
+        <v>0.02886598694833334</v>
       </c>
       <c r="R2">
-        <v>0.001653564775</v>
+        <v>0.259793882535</v>
       </c>
       <c r="S2">
-        <v>9.666183308918401E-05</v>
+        <v>0.01520186610678187</v>
       </c>
       <c r="T2">
-        <v>9.666183308918401E-05</v>
+        <v>0.01520186610678186</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,25 +587,25 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.2000683333333333</v>
+        <v>0.322531</v>
       </c>
       <c r="H3">
-        <v>0.600205</v>
+        <v>0.967593</v>
       </c>
       <c r="I3">
-        <v>0.01182207550347303</v>
+        <v>0.01892149513432853</v>
       </c>
       <c r="J3">
-        <v>0.01182207550347303</v>
+        <v>0.01892149513432853</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -614,33 +614,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.08949833333333333</v>
+        <v>0.02189866666666667</v>
       </c>
       <c r="N3">
-        <v>0.268495</v>
+        <v>0.065696</v>
       </c>
       <c r="O3">
-        <v>0.796848753212681</v>
+        <v>0.1965821940147999</v>
       </c>
       <c r="P3">
-        <v>0.796848753212681</v>
+        <v>0.1965821940147999</v>
       </c>
       <c r="Q3">
-        <v>0.01790578238611111</v>
+        <v>0.007062998858666667</v>
       </c>
       <c r="R3">
-        <v>0.161152041475</v>
+        <v>0.06356698972800001</v>
       </c>
       <c r="S3">
-        <v>0.00942040612532866</v>
+        <v>0.003719629027546665</v>
       </c>
       <c r="T3">
-        <v>0.00942040612532866</v>
+        <v>0.003719629027546664</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -658,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.2000683333333333</v>
+        <v>0.44525</v>
       </c>
       <c r="H4">
-        <v>0.600205</v>
+        <v>1.33575</v>
       </c>
       <c r="I4">
-        <v>0.01182207550347303</v>
+        <v>0.0261208867009986</v>
       </c>
       <c r="J4">
-        <v>0.01182207550347303</v>
+        <v>0.0261208867009986</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.02189866666666667</v>
+        <v>0.08949833333333333</v>
       </c>
       <c r="N4">
-        <v>0.065696</v>
+        <v>0.268495</v>
       </c>
       <c r="O4">
-        <v>0.1949748624408659</v>
+        <v>0.8034178059852001</v>
       </c>
       <c r="P4">
-        <v>0.1949748624408659</v>
+        <v>0.8034178059852</v>
       </c>
       <c r="Q4">
-        <v>0.004381229742222222</v>
+        <v>0.03984913291666666</v>
       </c>
       <c r="R4">
-        <v>0.03943106768</v>
+        <v>0.35864219625</v>
       </c>
       <c r="S4">
-        <v>0.002305007545055184</v>
+        <v>0.02098598548370428</v>
       </c>
       <c r="T4">
-        <v>0.002305007545055184</v>
+        <v>0.02098598548370428</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -726,10 +726,10 @@
         <v>1.33575</v>
       </c>
       <c r="I5">
-        <v>0.02630990637159653</v>
+        <v>0.0261208867009986</v>
       </c>
       <c r="J5">
-        <v>0.02630990637159653</v>
+        <v>0.0261208867009986</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -738,33 +738,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.0009183333333333334</v>
+        <v>0.02189866666666667</v>
       </c>
       <c r="N5">
-        <v>0.002755</v>
+        <v>0.065696</v>
       </c>
       <c r="O5">
-        <v>0.008176384346453142</v>
+        <v>0.1965821940147999</v>
       </c>
       <c r="P5">
-        <v>0.008176384346453142</v>
+        <v>0.1965821940147999</v>
       </c>
       <c r="Q5">
-        <v>0.0004088879166666666</v>
+        <v>0.009750381333333334</v>
       </c>
       <c r="R5">
-        <v>0.00367999125</v>
+        <v>0.08775343200000001</v>
       </c>
       <c r="S5">
-        <v>0.0002151199066133697</v>
+        <v>0.005134901217294313</v>
       </c>
       <c r="T5">
-        <v>0.0002151199066133696</v>
+        <v>0.005134901217294313</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,22 +776,22 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.44525</v>
+        <v>16.277965</v>
       </c>
       <c r="H6">
-        <v>1.33575</v>
+        <v>48.833895</v>
       </c>
       <c r="I6">
-        <v>0.02630990637159653</v>
+        <v>0.954957618164673</v>
       </c>
       <c r="J6">
-        <v>0.02630990637159653</v>
+        <v>0.954957618164673</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,27 +806,27 @@
         <v>0.268495</v>
       </c>
       <c r="O6">
-        <v>0.796848753212681</v>
+        <v>0.8034178059852001</v>
       </c>
       <c r="P6">
-        <v>0.796848753212681</v>
+        <v>0.8034178059852</v>
       </c>
       <c r="Q6">
-        <v>0.03984913291666666</v>
+        <v>1.456850737558333</v>
       </c>
       <c r="R6">
-        <v>0.35864219625</v>
+        <v>13.111656638025</v>
       </c>
       <c r="S6">
-        <v>0.02096501608934907</v>
+        <v>0.767229954394714</v>
       </c>
       <c r="T6">
-        <v>0.02096501608934907</v>
+        <v>0.7672299543947139</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,22 +838,22 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.44525</v>
+        <v>16.277965</v>
       </c>
       <c r="H7">
-        <v>1.33575</v>
+        <v>48.833895</v>
       </c>
       <c r="I7">
-        <v>0.02630990637159653</v>
+        <v>0.954957618164673</v>
       </c>
       <c r="J7">
-        <v>0.02630990637159653</v>
+        <v>0.954957618164673</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,208 +868,22 @@
         <v>0.065696</v>
       </c>
       <c r="O7">
-        <v>0.1949748624408659</v>
+        <v>0.1965821940147999</v>
       </c>
       <c r="P7">
-        <v>0.1949748624408659</v>
+        <v>0.1965821940147999</v>
       </c>
       <c r="Q7">
-        <v>0.009750381333333334</v>
+        <v>0.3564657295466666</v>
       </c>
       <c r="R7">
-        <v>0.08775343200000001</v>
+        <v>3.20819156592</v>
       </c>
       <c r="S7">
-        <v>0.005129770375634096</v>
+        <v>0.187727663769959</v>
       </c>
       <c r="T7">
-        <v>0.005129770375634096</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>16.277965</v>
-      </c>
-      <c r="H8">
-        <v>48.833895</v>
-      </c>
-      <c r="I8">
-        <v>0.9618680181249305</v>
-      </c>
-      <c r="J8">
-        <v>0.9618680181249305</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.0009183333333333334</v>
-      </c>
-      <c r="N8">
-        <v>0.002755</v>
-      </c>
-      <c r="O8">
-        <v>0.008176384346453142</v>
-      </c>
-      <c r="P8">
-        <v>0.008176384346453142</v>
-      </c>
-      <c r="Q8">
-        <v>0.01494859785833333</v>
-      </c>
-      <c r="R8">
-        <v>0.134537380725</v>
-      </c>
-      <c r="S8">
-        <v>0.007864602606750589</v>
-      </c>
-      <c r="T8">
-        <v>0.007864602606750589</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>16.277965</v>
-      </c>
-      <c r="H9">
-        <v>48.833895</v>
-      </c>
-      <c r="I9">
-        <v>0.9618680181249305</v>
-      </c>
-      <c r="J9">
-        <v>0.9618680181249305</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.08949833333333333</v>
-      </c>
-      <c r="N9">
-        <v>0.268495</v>
-      </c>
-      <c r="O9">
-        <v>0.796848753212681</v>
-      </c>
-      <c r="P9">
-        <v>0.796848753212681</v>
-      </c>
-      <c r="Q9">
-        <v>1.456850737558333</v>
-      </c>
-      <c r="R9">
-        <v>13.111656638025</v>
-      </c>
-      <c r="S9">
-        <v>0.7664633309980033</v>
-      </c>
-      <c r="T9">
-        <v>0.7664633309980033</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>16.277965</v>
-      </c>
-      <c r="H10">
-        <v>48.833895</v>
-      </c>
-      <c r="I10">
-        <v>0.9618680181249305</v>
-      </c>
-      <c r="J10">
-        <v>0.9618680181249305</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M10">
-        <v>0.02189866666666667</v>
-      </c>
-      <c r="N10">
-        <v>0.065696</v>
-      </c>
-      <c r="O10">
-        <v>0.1949748624408659</v>
-      </c>
-      <c r="P10">
-        <v>0.1949748624408659</v>
-      </c>
-      <c r="Q10">
-        <v>0.3564657295466666</v>
-      </c>
-      <c r="R10">
-        <v>3.20819156592</v>
-      </c>
-      <c r="S10">
-        <v>0.1875400845201766</v>
-      </c>
-      <c r="T10">
-        <v>0.1875400845201766</v>
+        <v>0.187727663769959</v>
       </c>
     </row>
   </sheetData>
